--- a/biology/Botanique/Frankeniaceae/Frankeniaceae.xlsx
+++ b/biology/Botanique/Frankeniaceae/Frankeniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Frankeniaceae est constituée de plantes dicotylédones ; elle comprend de 10 à 90 espèces réparties en 1 à 4 genres.
 Ce sont des sous-arbrisseaux ou des plantes herbacées, pérennes, des zones arides ou salées, largement répandus dans les régions tempérées et subtropicales.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de Frankeniaceae a été créé en l'honneur du médecin et botaniste suédois Johan Frankenius (1590–1661).
 </t>
@@ -543,17 +557,19 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (3 mai 2010)[1] et NCBI  (3 mai 2010)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (3 mai 2010) et NCBI  (3 mai 2010) :
 genre Frankenia
 Selon le Angiosperm Phylogeny Website le genre Frankenia inclut, aujourd'hui, les plantes des genres Anthobryum, Beatsonia, Hypericopsis et Niederleinia.
-Selon DELTA Angio           (3 mai 2010)[3] :
+Selon DELTA Angio           (3 mai 2010) :
 genre Frankenia
 genre Hypericopsis
 genre Anthobryum
 genre Niederleinia
-Selon ITIS      (3 mai 2010)[4] :
+Selon ITIS      (3 mai 2010) :
 genre Frankenia  L.</t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (3 mai 2010)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (3 mai 2010) :
 genre Frankenia
 Frankenia corymbosa
 Frankenia hirsuta
